--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3060658.234965034</v>
+        <v>3058159.983643824</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673422</v>
+        <v>603248.4937673419</v>
       </c>
     </row>
     <row r="9">
@@ -1373,19 +1373,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>126.1834840891871</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>311.7236160152336</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1427,13 +1427,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T13" t="n">
         <v>172.5738126575766</v>
@@ -1607,16 +1607,16 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>275.9723987444513</v>
       </c>
       <c r="D14" t="n">
-        <v>135.2269483119438</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
@@ -1856,7 +1856,7 @@
         <v>312.4732616555754</v>
       </c>
       <c r="G17" t="n">
-        <v>316.5189415673174</v>
+        <v>270.5718355797521</v>
       </c>
       <c r="H17" t="n">
         <v>200.2049803011844</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.78497770203984</v>
+        <v>14.78497770203982</v>
       </c>
       <c r="T17" t="n">
-        <v>63.56808006591825</v>
+        <v>109.5151860534841</v>
       </c>
       <c r="U17" t="n">
         <v>156.592387872766</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2020,7 +2020,7 @@
         <v>50.35223082818477</v>
       </c>
       <c r="I19" t="n">
-        <v>1.949636323702101</v>
+        <v>1.949636323702087</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>316.5189415673174</v>
       </c>
       <c r="H20" t="n">
-        <v>200.2049803011844</v>
+        <v>154.2578743136181</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>233.3494743839989</v>
       </c>
       <c r="W20" t="n">
-        <v>208.8910786437111</v>
+        <v>254.838184631277</v>
       </c>
       <c r="X20" t="n">
         <v>275.328316592333</v>
@@ -2333,7 +2333,7 @@
         <v>316.5189415673176</v>
       </c>
       <c r="H23" t="n">
-        <v>154.2578743136168</v>
+        <v>154.2578743136172</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.78497770204</v>
+        <v>14.78497770203998</v>
       </c>
       <c r="T23" t="n">
         <v>109.5151860534843</v>
       </c>
       <c r="U23" t="n">
-        <v>156.5923878727662</v>
+        <v>156.5923878727661</v>
       </c>
       <c r="V23" t="n">
         <v>233.3494743839991</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.42919609580146</v>
+        <v>85.42919609580143</v>
       </c>
       <c r="C25" t="n">
-        <v>72.844037012492</v>
+        <v>72.84403701249197</v>
       </c>
       <c r="D25" t="n">
-        <v>54.21268893207652</v>
+        <v>54.21268893207649</v>
       </c>
       <c r="E25" t="n">
-        <v>52.03117856043333</v>
+        <v>52.0311785604333</v>
       </c>
       <c r="F25" t="n">
-        <v>51.01826393679541</v>
+        <v>51.01826393679538</v>
       </c>
       <c r="G25" t="n">
-        <v>71.62302417289239</v>
+        <v>71.62302417289236</v>
       </c>
       <c r="H25" t="n">
-        <v>50.35223082818494</v>
+        <v>50.35223082818491</v>
       </c>
       <c r="I25" t="n">
-        <v>1.949636323702258</v>
+        <v>1.949636323702244</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>131.3068713029013</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.181869265959</v>
+        <v>124.1818692659589</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>363.4940781859102</v>
       </c>
       <c r="H26" t="n">
-        <v>35.37761513992839</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>61.76011432063252</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>156.4903226720768</v>
       </c>
       <c r="U26" t="n">
         <v>203.5675244913587</v>
@@ -2621,7 +2621,7 @@
         <v>322.3034532109257</v>
       </c>
       <c r="Y26" t="n">
-        <v>338.8102911885103</v>
+        <v>217.6975836563612</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2716,19 +2716,19 @@
         <v>119.8191736310845</v>
       </c>
       <c r="D28" t="n">
-        <v>101.1878255506691</v>
+        <v>101.187825550669</v>
       </c>
       <c r="E28" t="n">
-        <v>99.00631517902588</v>
+        <v>99.00631517902585</v>
       </c>
       <c r="F28" t="n">
-        <v>97.99340055538795</v>
+        <v>97.99340055538792</v>
       </c>
       <c r="G28" t="n">
         <v>118.5981607914849</v>
       </c>
       <c r="H28" t="n">
-        <v>97.32736744677749</v>
+        <v>97.32736744677746</v>
       </c>
       <c r="I28" t="n">
         <v>48.92477294229479</v>
@@ -2767,7 +2767,7 @@
         <v>172.1213018086259</v>
       </c>
       <c r="U28" t="n">
-        <v>238.7841907380696</v>
+        <v>238.7841907380695</v>
       </c>
       <c r="V28" t="n">
         <v>204.7099958562847</v>
@@ -2776,7 +2776,7 @@
         <v>239.0953508690477</v>
       </c>
       <c r="X28" t="n">
-        <v>178.2820079214939</v>
+        <v>178.2820079214938</v>
       </c>
       <c r="Y28" t="n">
         <v>171.1570058845515</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>335.3061941959373</v>
       </c>
       <c r="C29" t="n">
         <v>317.8452443034643</v>
@@ -2798,16 +2798,16 @@
         <v>307.2553941531397</v>
       </c>
       <c r="E29" t="n">
-        <v>334.5027226047185</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>359.4483982741681</v>
       </c>
       <c r="G29" t="n">
-        <v>363.4940781859102</v>
+        <v>241.5778990625427</v>
       </c>
       <c r="H29" t="n">
-        <v>247.1801169197772</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>61.76011432063254</v>
+        <v>61.76011432063252</v>
       </c>
       <c r="T29" t="n">
         <v>156.4903226720768</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>203.5675244913587</v>
       </c>
       <c r="V29" t="n">
         <v>280.3246110025916</v>
@@ -2858,7 +2858,7 @@
         <v>322.3034532109257</v>
       </c>
       <c r="Y29" t="n">
-        <v>174.0849912279434</v>
+        <v>338.8102911885103</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2953,22 +2953,22 @@
         <v>119.8191736310845</v>
       </c>
       <c r="D31" t="n">
-        <v>101.1878255506691</v>
+        <v>101.187825550669</v>
       </c>
       <c r="E31" t="n">
-        <v>99.00631517902588</v>
+        <v>99.00631517902585</v>
       </c>
       <c r="F31" t="n">
-        <v>97.99340055538795</v>
+        <v>97.99340055538792</v>
       </c>
       <c r="G31" t="n">
         <v>118.5981607914849</v>
       </c>
       <c r="H31" t="n">
-        <v>97.32736744677749</v>
+        <v>97.32736744677746</v>
       </c>
       <c r="I31" t="n">
-        <v>48.9247729422948</v>
+        <v>48.92477294229479</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.50450520250403</v>
+        <v>41.50450520250402</v>
       </c>
       <c r="S31" t="n">
         <v>142.3413778638986</v>
@@ -3004,7 +3004,7 @@
         <v>172.1213018086259</v>
       </c>
       <c r="U31" t="n">
-        <v>238.7841907380696</v>
+        <v>238.7841907380695</v>
       </c>
       <c r="V31" t="n">
         <v>204.7099958562847</v>
@@ -3013,7 +3013,7 @@
         <v>239.0953508690477</v>
       </c>
       <c r="X31" t="n">
-        <v>178.2820079214939</v>
+        <v>178.2820079214938</v>
       </c>
       <c r="Y31" t="n">
         <v>171.1570058845515</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C32" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D32" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E32" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F32" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G32" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H32" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T32" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U32" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V32" t="n">
         <v>230.06753824203</v>
@@ -3092,7 +3092,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X32" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y32" t="n">
         <v>288.5532184279487</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C34" t="n">
-        <v>69.56210087052294</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D34" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E34" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F34" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G34" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H34" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>92.084305103337</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T34" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U34" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V34" t="n">
         <v>154.4529230957231</v>
@@ -3250,7 +3250,7 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X34" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y34" t="n">
         <v>120.8999331239899</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253477</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115134</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
         <v>230.06753824203</v>
@@ -3329,7 +3329,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U36" t="n">
         <v>225.7871683969286</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383242</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052295</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010748</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846429</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482637</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092334</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H37" t="n">
-        <v>47.0702946862159</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333702</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
         <v>154.4529230957231</v>
@@ -3487,7 +3487,7 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239899</v>
@@ -3512,10 +3512,10 @@
         <v>284.2456498441567</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H38" t="n">
         <v>196.9230441592154</v>
@@ -3560,13 +3560,13 @@
         <v>153.3104517307969</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279485</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U39" t="n">
         <v>225.7871683969286</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383223</v>
+        <v>82.14725995383222</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052277</v>
+        <v>69.56210087052276</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010729</v>
+        <v>50.93075279010728</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846411</v>
+        <v>48.74924241846409</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482618</v>
+        <v>47.73632779482617</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092316</v>
+        <v>68.34108803092315</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621572</v>
+        <v>47.0702946862157</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333683</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480641</v>
@@ -3718,10 +3718,10 @@
         <v>188.5271179775078</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X40" t="n">
         <v>128.0249351609321</v>
@@ -3743,16 +3743,16 @@
         <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925779</v>
+        <v>256.9983213925785</v>
       </c>
       <c r="E41" t="n">
         <v>284.2456498441567</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136067</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H41" t="n">
         <v>196.9230441592154</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007077</v>
+        <v>11.50304156007076</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115151</v>
@@ -3797,13 +3797,13 @@
         <v>153.3104517307969</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279485</v>
@@ -3876,7 +3876,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V42" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383223</v>
+        <v>82.14725995383222</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052277</v>
+        <v>69.56210087052276</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010729</v>
+        <v>50.93075279010728</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846411</v>
+        <v>48.74924241846409</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482618</v>
+        <v>47.73632779482617</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092316</v>
+        <v>68.34108803092315</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621572</v>
+        <v>47.0702946862157</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333683</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480641</v>
@@ -3955,10 +3955,10 @@
         <v>188.5271179775078</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X43" t="n">
         <v>128.0249351609321</v>
@@ -3983,13 +3983,13 @@
         <v>256.9983213925779</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441582</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H44" t="n">
         <v>196.9230441592154</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007132</v>
+        <v>11.50304156007077</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115151</v>
@@ -4034,13 +4034,13 @@
         <v>153.3104517307969</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279485</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247723</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383223</v>
+        <v>82.14725995383222</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052277</v>
+        <v>69.56210087052276</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010729</v>
+        <v>50.93075279010728</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846411</v>
+        <v>48.74924241846409</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482618</v>
+        <v>47.73632779482617</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092316</v>
+        <v>68.34108803092315</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621572</v>
+        <v>47.0702946862157</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333683</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480641</v>
@@ -4192,10 +4192,10 @@
         <v>188.5271179775078</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X46" t="n">
         <v>128.0249351609321</v>
@@ -5015,58 +5015,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1584.98077385971</v>
+        <v>1627.38364477722</v>
       </c>
       <c r="C11" t="n">
-        <v>1263.467889867371</v>
+        <v>1305.870760784881</v>
       </c>
       <c r="D11" t="n">
-        <v>1136.009825130819</v>
+        <v>995.054695126204</v>
       </c>
       <c r="E11" t="n">
-        <v>797.6712054806479</v>
+        <v>680.1823557168773</v>
       </c>
       <c r="F11" t="n">
-        <v>434.1349336391136</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T11" t="n">
         <v>3104.236671416635</v>
@@ -5075,16 +5075,16 @@
         <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2898.155827638544</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2592.836805316503</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2266.820680003497</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="Y11" t="n">
-        <v>1924.130980975758</v>
+        <v>1966.533851893268</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052945</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254609</v>
       </c>
       <c r="D13" t="n">
         <v>535.3126933611984</v>
@@ -5185,25 +5185,25 @@
         <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>158.1401341315255</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328082</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
-        <v>771.697886033711</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5218,7 +5218,7 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R13" t="n">
         <v>2256.956805813346</v>
@@ -5242,7 +5242,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874607</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1522.73666965675</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C14" t="n">
-        <v>1522.73666965675</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573979</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923808</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="F14" t="n">
         <v>684.2689010822731</v>
       </c>
       <c r="G14" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609172</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609172</v>
+        <v>3104.236671416636</v>
       </c>
       <c r="U14" t="n">
-        <v>3119.524977831082</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V14" t="n">
-        <v>2835.911723435584</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W14" t="n">
-        <v>2530.592701113544</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X14" t="n">
-        <v>2204.576575800537</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y14" t="n">
-        <v>1861.886876772799</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228011</v>
@@ -5361,34 +5361,34 @@
         <v>398.453584903148</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5431,16 +5431,16 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1731.032454542914</v>
+        <v>1684.621236373655</v>
       </c>
       <c r="C17" t="n">
-        <v>1457.426285164256</v>
+        <v>1411.015066994997</v>
       </c>
       <c r="D17" t="n">
-        <v>1194.516934119259</v>
+        <v>1148.10571595</v>
       </c>
       <c r="E17" t="n">
-        <v>904.0850290827683</v>
+        <v>857.6738109135089</v>
       </c>
       <c r="F17" t="n">
-        <v>588.4554718549143</v>
+        <v>542.0442536856549</v>
       </c>
       <c r="G17" t="n">
         <v>268.7393692616627</v>
@@ -5513,7 +5513,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810557</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3310.67150069802</v>
+        <v>3310.671500698019</v>
       </c>
       <c r="T17" t="n">
-        <v>3246.461318813254</v>
+        <v>3200.050100643995</v>
       </c>
       <c r="U17" t="n">
-        <v>3088.287189648844</v>
+        <v>3041.875971479585</v>
       </c>
       <c r="V17" t="n">
-        <v>2852.580649867027</v>
+        <v>2806.169431697768</v>
       </c>
       <c r="W17" t="n">
-        <v>2595.168342158667</v>
+        <v>2548.757123989408</v>
       </c>
       <c r="X17" t="n">
-        <v>2317.058931459341</v>
+        <v>2270.647713290081</v>
       </c>
       <c r="Y17" t="n">
-        <v>2022.275947045283</v>
+        <v>1975.864728876023</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5595,10 +5595,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,31 +5610,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
         <v>1109.759191501176</v>
@@ -5665,34 +5665,34 @@
         <v>119.3422852724732</v>
       </c>
       <c r="H19" t="n">
-        <v>68.48144605208454</v>
+        <v>68.48144605208452</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7936262148975</v>
+        <v>129.6354881860049</v>
       </c>
       <c r="K19" t="n">
-        <v>326.821023800878</v>
+        <v>321.4050986989499</v>
       </c>
       <c r="L19" t="n">
-        <v>482.5308677232352</v>
+        <v>570.5736988665818</v>
       </c>
       <c r="M19" t="n">
-        <v>743.4221052677076</v>
+        <v>738.0061801657796</v>
       </c>
       <c r="N19" t="n">
-        <v>1008.18969854283</v>
+        <v>1002.773773440902</v>
       </c>
       <c r="O19" t="n">
-        <v>1239.566804006294</v>
+        <v>1234.150878904366</v>
       </c>
       <c r="P19" t="n">
-        <v>1431.976563004327</v>
+        <v>1426.5606379024</v>
       </c>
       <c r="Q19" t="n">
-        <v>1538.356086608143</v>
+        <v>1532.940161506215</v>
       </c>
       <c r="R19" t="n">
         <v>1538.356086608143</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1731.032454542913</v>
+        <v>1684.621236373654</v>
       </c>
       <c r="C20" t="n">
-        <v>1457.426285164254</v>
+        <v>1411.015066994996</v>
       </c>
       <c r="D20" t="n">
-        <v>1194.516934119257</v>
+        <v>1148.105715949999</v>
       </c>
       <c r="E20" t="n">
-        <v>904.0850290827665</v>
+        <v>857.673810913508</v>
       </c>
       <c r="F20" t="n">
-        <v>588.4554718549125</v>
+        <v>542.044253685654</v>
       </c>
       <c r="G20" t="n">
-        <v>268.7393692616626</v>
+        <v>222.3281510924037</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218339</v>
@@ -5753,7 +5753,7 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5789,13 +5789,13 @@
         <v>2806.169431697767</v>
       </c>
       <c r="W20" t="n">
-        <v>2595.168342158665</v>
+        <v>2548.757123989406</v>
       </c>
       <c r="X20" t="n">
-        <v>2317.058931459339</v>
+        <v>2270.64771329008</v>
       </c>
       <c r="Y20" t="n">
-        <v>2022.27594704528</v>
+        <v>1975.864728876022</v>
       </c>
     </row>
     <row r="21">
@@ -5917,19 +5917,19 @@
         <v>612.7318368954743</v>
       </c>
       <c r="M22" t="n">
-        <v>780.1643181946721</v>
+        <v>873.6230744399468</v>
       </c>
       <c r="N22" t="n">
-        <v>1044.931911469794</v>
+        <v>1138.390667715069</v>
       </c>
       <c r="O22" t="n">
-        <v>1276.309016933259</v>
+        <v>1327.609635149641</v>
       </c>
       <c r="P22" t="n">
-        <v>1431.976563004327</v>
+        <v>1520.019394147674</v>
       </c>
       <c r="Q22" t="n">
-        <v>1538.356086608143</v>
+        <v>1532.940161506215</v>
       </c>
       <c r="R22" t="n">
         <v>1538.356086608143</v>
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1684.621236373654</v>
+        <v>1684.621236373653</v>
       </c>
       <c r="C23" t="n">
         <v>1411.015066994995</v>
@@ -5972,25 +5972,25 @@
         <v>1148.105715949998</v>
       </c>
       <c r="E23" t="n">
-        <v>857.6738109135072</v>
+        <v>857.6738109135067</v>
       </c>
       <c r="F23" t="n">
-        <v>542.0442536856531</v>
+        <v>542.0442536856526</v>
       </c>
       <c r="G23" t="n">
-        <v>222.3281510924024</v>
+        <v>222.3281510924028</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218377</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
@@ -6005,34 +6005,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3310.67150069802</v>
+        <v>3310.671500698019</v>
       </c>
       <c r="T23" t="n">
-        <v>3200.050100643995</v>
+        <v>3200.050100643994</v>
       </c>
       <c r="U23" t="n">
-        <v>3041.875971479585</v>
+        <v>3041.875971479584</v>
       </c>
       <c r="V23" t="n">
-        <v>2806.169431697768</v>
+        <v>2806.169431697767</v>
       </c>
       <c r="W23" t="n">
-        <v>2548.757123989407</v>
+        <v>2548.757123989406</v>
       </c>
       <c r="X23" t="n">
         <v>2270.64771329008</v>
       </c>
       <c r="Y23" t="n">
-        <v>1975.864728876022</v>
+        <v>1975.864728876021</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
@@ -6099,7 +6099,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6108,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>424.1192475095337</v>
+        <v>424.1192475095336</v>
       </c>
       <c r="C25" t="n">
-        <v>350.5394121433802</v>
+        <v>350.53941214338</v>
       </c>
       <c r="D25" t="n">
-        <v>295.7791202927979</v>
+        <v>295.7791202927978</v>
       </c>
       <c r="E25" t="n">
-        <v>243.2223742721582</v>
+        <v>243.2223742721581</v>
       </c>
       <c r="F25" t="n">
-        <v>191.6887743360012</v>
+        <v>191.6887743360011</v>
       </c>
       <c r="G25" t="n">
         <v>119.3422852724735</v>
       </c>
       <c r="H25" t="n">
-        <v>68.48144605208471</v>
+        <v>68.48144605208468</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
         <v>171.7936262148974</v>
       </c>
       <c r="K25" t="n">
-        <v>270.1044804825677</v>
+        <v>363.5632367278422</v>
       </c>
       <c r="L25" t="n">
-        <v>519.2730806501995</v>
+        <v>612.7318368954739</v>
       </c>
       <c r="M25" t="n">
-        <v>780.1643181946718</v>
+        <v>873.6230744399461</v>
       </c>
       <c r="N25" t="n">
-        <v>1008.189698542833</v>
+        <v>1138.390667715068</v>
       </c>
       <c r="O25" t="n">
-        <v>1239.566804006297</v>
+        <v>1276.309016933258</v>
       </c>
       <c r="P25" t="n">
         <v>1431.97656300433</v>
@@ -6178,19 +6178,19 @@
         <v>1315.616282128005</v>
       </c>
       <c r="U25" t="n">
-        <v>1121.869762815402</v>
+        <v>1121.869762815401</v>
       </c>
       <c r="V25" t="n">
-        <v>962.541622171268</v>
+        <v>962.5416221712678</v>
       </c>
       <c r="W25" t="n">
-        <v>768.4807996960608</v>
+        <v>768.4807996960606</v>
       </c>
       <c r="X25" t="n">
-        <v>635.8475963597969</v>
+        <v>635.8475963597966</v>
       </c>
       <c r="Y25" t="n">
-        <v>510.4113647780201</v>
+        <v>510.4113647780199</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1801.788331241607</v>
+        <v>1766.053366453801</v>
       </c>
       <c r="C26" t="n">
-        <v>1480.732528914876</v>
+        <v>1444.997564127069</v>
       </c>
       <c r="D26" t="n">
-        <v>1170.373544921805</v>
+        <v>1134.638580133998</v>
       </c>
       <c r="E26" t="n">
-        <v>832.4920069372411</v>
+        <v>796.7570421494344</v>
       </c>
       <c r="F26" t="n">
-        <v>469.4128167613136</v>
+        <v>433.6778519735068</v>
       </c>
       <c r="G26" t="n">
-        <v>102.2470812199899</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3263.221867749947</v>
+        <v>3263.221867749946</v>
       </c>
       <c r="T26" t="n">
-        <v>3263.221867749947</v>
+        <v>3105.150834747848</v>
       </c>
       <c r="U26" t="n">
-        <v>3057.598105637463</v>
+        <v>2899.527072635365</v>
       </c>
       <c r="V26" t="n">
-        <v>2774.441932907573</v>
+        <v>2616.370899905474</v>
       </c>
       <c r="W26" t="n">
-        <v>2469.579992251139</v>
+        <v>2311.50895924904</v>
       </c>
       <c r="X26" t="n">
-        <v>2144.020948603739</v>
+        <v>1985.94991560164</v>
       </c>
       <c r="Y26" t="n">
-        <v>1801.788331241607</v>
+        <v>1766.053366453801</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6358,55 +6358,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>756.2666781460467</v>
+        <v>756.2666781460466</v>
       </c>
       <c r="C28" t="n">
-        <v>635.2372098318199</v>
+        <v>635.2372098318198</v>
       </c>
       <c r="D28" t="n">
-        <v>533.0272850331643</v>
+        <v>533.0272850331642</v>
       </c>
       <c r="E28" t="n">
-        <v>433.0209060644513</v>
+        <v>433.0209060644512</v>
       </c>
       <c r="F28" t="n">
-        <v>334.0376731802211</v>
+        <v>334.037673180221</v>
       </c>
       <c r="G28" t="n">
-        <v>214.2415511686201</v>
+        <v>214.24155116862</v>
       </c>
       <c r="H28" t="n">
         <v>115.931079000158</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
         <v>158.5881198719869</v>
       </c>
       <c r="K28" t="n">
-        <v>409.5286738137312</v>
+        <v>398.6314812403318</v>
       </c>
       <c r="L28" t="n">
-        <v>773.0418432550953</v>
+        <v>762.1446506816958</v>
       </c>
       <c r="M28" t="n">
         <v>1153.255067274113</v>
       </c>
       <c r="N28" t="n">
-        <v>1541.616814972846</v>
+        <v>1541.616814972845</v>
       </c>
       <c r="O28" t="n">
-        <v>1887.899784886127</v>
+        <v>1887.899784886126</v>
       </c>
       <c r="P28" t="n">
         <v>2167.460656312654</v>
       </c>
       <c r="Q28" t="n">
-        <v>2292.024323458037</v>
+        <v>2292.024323458036</v>
       </c>
       <c r="R28" t="n">
-        <v>2250.100580829245</v>
+        <v>2250.100580829244</v>
       </c>
       <c r="S28" t="n">
         <v>2106.321411269751</v>
@@ -6421,13 +6421,13 @@
         <v>1484.487584600074</v>
       </c>
       <c r="W28" t="n">
-        <v>1242.977129176794</v>
+        <v>1242.977129176793</v>
       </c>
       <c r="X28" t="n">
         <v>1062.894292892456</v>
       </c>
       <c r="Y28" t="n">
-        <v>890.0084283626063</v>
+        <v>890.0084283626062</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2015.730252231353</v>
+        <v>1305.024172789067</v>
       </c>
       <c r="C29" t="n">
-        <v>1694.674449904622</v>
+        <v>983.9683704623355</v>
       </c>
       <c r="D29" t="n">
-        <v>1384.315465911551</v>
+        <v>673.6093864692651</v>
       </c>
       <c r="E29" t="n">
-        <v>1046.433927926987</v>
+        <v>673.6093864692651</v>
       </c>
       <c r="F29" t="n">
-        <v>683.3547377510596</v>
+        <v>310.5301962933377</v>
       </c>
       <c r="G29" t="n">
-        <v>316.1890022097361</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6494,19 +6494,19 @@
         <v>3105.150834747848</v>
       </c>
       <c r="U29" t="n">
-        <v>3105.150834747848</v>
+        <v>2899.527072635365</v>
       </c>
       <c r="V29" t="n">
-        <v>2821.994662017958</v>
+        <v>2616.370899905474</v>
       </c>
       <c r="W29" t="n">
-        <v>2517.132721361524</v>
+        <v>2311.50895924904</v>
       </c>
       <c r="X29" t="n">
-        <v>2191.573677714124</v>
+        <v>1985.94991560164</v>
       </c>
       <c r="Y29" t="n">
-        <v>2015.730252231353</v>
+        <v>1643.717298239509</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H30" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6558,34 +6558,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6595,55 +6595,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>756.2666781460467</v>
+        <v>756.2666781460466</v>
       </c>
       <c r="C31" t="n">
-        <v>635.2372098318199</v>
+        <v>635.2372098318198</v>
       </c>
       <c r="D31" t="n">
-        <v>533.0272850331643</v>
+        <v>533.0272850331642</v>
       </c>
       <c r="E31" t="n">
-        <v>433.0209060644513</v>
+        <v>433.0209060644512</v>
       </c>
       <c r="F31" t="n">
-        <v>334.0376731802211</v>
+        <v>334.037673180221</v>
       </c>
       <c r="G31" t="n">
-        <v>214.2415511686201</v>
+        <v>214.24155116862</v>
       </c>
       <c r="H31" t="n">
         <v>115.931079000158</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>158.5881198719869</v>
+        <v>147.6909272985876</v>
       </c>
       <c r="K31" t="n">
-        <v>409.5286738137311</v>
+        <v>398.6314812403318</v>
       </c>
       <c r="L31" t="n">
-        <v>762.144650681696</v>
+        <v>762.1446506816958</v>
       </c>
       <c r="M31" t="n">
         <v>1153.255067274113</v>
       </c>
       <c r="N31" t="n">
-        <v>1541.616814972846</v>
+        <v>1541.616814972845</v>
       </c>
       <c r="O31" t="n">
-        <v>1887.899784886127</v>
+        <v>1887.899784886126</v>
       </c>
       <c r="P31" t="n">
         <v>2167.460656312654</v>
       </c>
       <c r="Q31" t="n">
-        <v>2292.024323458037</v>
+        <v>2292.024323458036</v>
       </c>
       <c r="R31" t="n">
-        <v>2250.100580829245</v>
+        <v>2250.100580829244</v>
       </c>
       <c r="S31" t="n">
         <v>2106.321411269751</v>
@@ -6658,13 +6658,13 @@
         <v>1484.487584600074</v>
       </c>
       <c r="W31" t="n">
-        <v>1242.977129176794</v>
+        <v>1242.977129176793</v>
       </c>
       <c r="X31" t="n">
         <v>1062.894292892456</v>
       </c>
       <c r="Y31" t="n">
-        <v>890.0084283626063</v>
+        <v>890.0084283626062</v>
       </c>
     </row>
     <row r="32">
@@ -6680,46 +6680,46 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D32" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E32" t="n">
         <v>894.139768046497</v>
       </c>
       <c r="F32" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G32" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
@@ -6728,7 +6728,7 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T32" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U32" t="n">
         <v>3051.821232515855</v>
@@ -6737,13 +6737,13 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W32" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X32" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y32" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6795,31 +6795,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y33" t="n">
         <v>1109.759191501176</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>402.2593958170928</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C34" t="n">
-        <v>331.9946474630292</v>
+        <v>331.994647463029</v>
       </c>
       <c r="D34" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E34" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F34" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G34" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>67.83109325226756</v>
+        <v>67.83109325226758</v>
       </c>
       <c r="J34" t="n">
         <v>176.3617198155309</v>
       </c>
       <c r="K34" t="n">
-        <v>371.3804471090251</v>
+        <v>274.6725740832012</v>
       </c>
       <c r="L34" t="n">
-        <v>623.7981640572062</v>
+        <v>527.0902910313823</v>
       </c>
       <c r="M34" t="n">
-        <v>791.230645356404</v>
+        <v>694.5227723305801</v>
       </c>
       <c r="N34" t="n">
-        <v>962.5394823862515</v>
+        <v>962.5394823862514</v>
       </c>
       <c r="O34" t="n">
-        <v>1176.02298077356</v>
+        <v>1197.165704630265</v>
       </c>
       <c r="P34" t="n">
-        <v>1371.681856552143</v>
+        <v>1392.824580408847</v>
       </c>
       <c r="Q34" t="n">
-        <v>1481.310496936508</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R34" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S34" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T34" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U34" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V34" t="n">
-        <v>927.4214224304673</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W34" t="n">
-        <v>736.67568696735</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X34" t="n">
-        <v>607.3575706431759</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y34" t="n">
-        <v>485.2364260734892</v>
+        <v>485.2364260734889</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103803</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070896</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464956</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307314</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6947,40 +6947,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.07033796065</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7032,34 +7032,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170929</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630293</v>
+        <v>331.994647463029</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245369</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
-        <v>175.0427429954467</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K37" t="n">
-        <v>370.0614702889409</v>
+        <v>253.5298502264963</v>
       </c>
       <c r="L37" t="n">
-        <v>622.479187237122</v>
+        <v>409.2396941488535</v>
       </c>
       <c r="M37" t="n">
-        <v>789.9116685363198</v>
+        <v>673.3800484738751</v>
       </c>
       <c r="N37" t="n">
-        <v>1038.104631555371</v>
+        <v>941.3967585295464</v>
       </c>
       <c r="O37" t="n">
-        <v>1176.022980773561</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P37" t="n">
         <v>1371.681856552143</v>
       </c>
       <c r="Q37" t="n">
-        <v>1481.310496936508</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219655</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304675</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673502</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431761</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734893</v>
+        <v>485.2364260734889</v>
       </c>
     </row>
     <row r="38">
@@ -7154,52 +7154,52 @@
         <v>1440.850850103803</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070896</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E38" t="n">
         <v>894.1397680464961</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307323</v>
+        <v>581.8252978307326</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710107</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668173</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7269,31 +7269,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
         <v>1109.759191501176</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170917</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630283</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245361</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159865</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F40" t="n">
         <v>183.0892706919196</v>
@@ -7324,37 +7324,37 @@
         <v>114.0578686404821</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226768</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>163.8840378413006</v>
+        <v>155.218995958823</v>
       </c>
       <c r="K40" t="n">
-        <v>358.902765134795</v>
+        <v>350.2377232523173</v>
       </c>
       <c r="L40" t="n">
-        <v>611.3204820829762</v>
+        <v>602.6554402004986</v>
       </c>
       <c r="M40" t="n">
-        <v>778.752963382174</v>
+        <v>770.0879214996963</v>
       </c>
       <c r="N40" t="n">
-        <v>1046.769673437846</v>
+        <v>941.3967585295438</v>
       </c>
       <c r="O40" t="n">
-        <v>1184.688022656035</v>
+        <v>1176.022980773557</v>
       </c>
       <c r="P40" t="n">
-        <v>1380.346898434618</v>
+        <v>1371.68185655214</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936505</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="S40" t="n">
         <v>1396.961089219652</v>
@@ -7366,16 +7366,16 @@
         <v>1083.434476062509</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304656</v>
+        <v>927.4214224304653</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673484</v>
+        <v>736.6756869673483</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431745</v>
+        <v>607.3575706431744</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734879</v>
+        <v>485.2364260734878</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D41" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307335</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495727</v>
@@ -7409,16 +7409,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7439,22 +7439,22 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7494,7 +7494,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170918</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630283</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245361</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E43" t="n">
         <v>231.3077836159865</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G43" t="n">
         <v>114.0578686404821</v>
@@ -7570,28 +7570,28 @@
         <v>175.0427429954469</v>
       </c>
       <c r="K43" t="n">
-        <v>358.902765134795</v>
+        <v>370.0614702889413</v>
       </c>
       <c r="L43" t="n">
-        <v>611.3204820829762</v>
+        <v>525.7713142112987</v>
       </c>
       <c r="M43" t="n">
-        <v>875.460836407998</v>
+        <v>789.9116685363205</v>
       </c>
       <c r="N43" t="n">
-        <v>1143.47754646367</v>
+        <v>961.220505566168</v>
       </c>
       <c r="O43" t="n">
-        <v>1281.395895681859</v>
+        <v>1195.846727810182</v>
       </c>
       <c r="P43" t="n">
-        <v>1477.054771460442</v>
+        <v>1371.68185655214</v>
       </c>
       <c r="Q43" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936505</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="S43" t="n">
         <v>1396.961089219652</v>
@@ -7603,16 +7603,16 @@
         <v>1083.434476062509</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304657</v>
+        <v>927.4214224304653</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673485</v>
+        <v>736.6756869673483</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431747</v>
+        <v>607.3575706431744</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.236426073488</v>
+        <v>485.2364260734878</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,31 +7743,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
         <v>1109.759191501176</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170917</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630283</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245361</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E46" t="n">
         <v>231.3077836159865</v>
@@ -7798,37 +7798,37 @@
         <v>114.0578686404821</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>67.83109325226772</v>
       </c>
       <c r="J46" t="n">
-        <v>175.0427429954469</v>
+        <v>79.65384678970715</v>
       </c>
       <c r="K46" t="n">
-        <v>358.902765134795</v>
+        <v>274.6725740832015</v>
       </c>
       <c r="L46" t="n">
-        <v>611.3204820829762</v>
+        <v>527.0902910313828</v>
       </c>
       <c r="M46" t="n">
-        <v>875.460836407998</v>
+        <v>694.5227723305806</v>
       </c>
       <c r="N46" t="n">
-        <v>1143.47754646367</v>
+        <v>950.0618004120211</v>
       </c>
       <c r="O46" t="n">
-        <v>1378.103768707683</v>
+        <v>1184.688022656035</v>
       </c>
       <c r="P46" t="n">
-        <v>1477.054771460442</v>
+        <v>1380.346898434617</v>
       </c>
       <c r="Q46" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="S46" t="n">
         <v>1396.961089219652</v>
@@ -7840,16 +7840,16 @@
         <v>1083.434476062509</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304656</v>
+        <v>927.4214224304653</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673484</v>
+        <v>736.6756869673483</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431745</v>
+        <v>607.3575706431744</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734879</v>
+        <v>485.2364260734878</v>
       </c>
     </row>
   </sheetData>
@@ -9091,7 +9091,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>178.5096609094456</v>
+        <v>178.5096609094458</v>
       </c>
       <c r="N16" t="n">
         <v>171.8177168444618</v>
@@ -10033,13 +10033,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>95.73650111899673</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>167.5023956837898</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
         <v>171.8177168444618</v>
@@ -10267,13 +10267,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>22.62897609706756</v>
       </c>
       <c r="K31" t="n">
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>151.4674363158988</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
         <v>178.5096609094456</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>181.5244209129033</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>23.23161743843563</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>42.32535640796374</v>
       </c>
       <c r="D14" t="n">
-        <v>172.4809566901466</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.2126251695833</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>45.94710598756535</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>45.94710598756588</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>45.94710598756638</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>45.94710598756588</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>45.94710598756784</v>
+        <v>45.94710598756739</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>211.8025017798488</v>
+        <v>247.1801169197772</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24494,7 +24494,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>156.4903226720768</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>121.1127075321491</v>
       </c>
     </row>
     <row r="27">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.3061941959373</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24686,16 +24686,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>334.5027226047185</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>121.9161791233674</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>247.1801169197772</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>203.5675244913587</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>164.7252999605668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25205,7 +25205,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.833200258261058e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>646237.6027303518</v>
+        <v>646237.6027303517</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380341</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>757830.6133132604</v>
+        <v>757830.6133132603</v>
       </c>
       <c r="C2" t="n">
         <v>757830.6133132603</v>
       </c>
       <c r="D2" t="n">
-        <v>757833.8957333416</v>
+        <v>757833.8957333419</v>
       </c>
       <c r="E2" t="n">
-        <v>707191.1841481045</v>
+        <v>707191.1841481047</v>
       </c>
       <c r="F2" t="n">
-        <v>707191.1841481046</v>
+        <v>707191.184148104</v>
       </c>
       <c r="G2" t="n">
         <v>756080.5517105983</v>
       </c>
       <c r="H2" t="n">
-        <v>756080.5517105985</v>
+        <v>756080.5517105984</v>
       </c>
       <c r="I2" t="n">
-        <v>756080.5517105981</v>
+        <v>756080.5517105986</v>
       </c>
       <c r="J2" t="n">
         <v>707657.6413814204</v>
       </c>
       <c r="K2" t="n">
-        <v>707657.6413814204</v>
+        <v>707657.6413814205</v>
       </c>
       <c r="L2" t="n">
-        <v>759463.637124463</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="M2" t="n">
-        <v>759463.637124463</v>
+        <v>759463.6371244628</v>
       </c>
       <c r="N2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244628</v>
       </c>
       <c r="O2" t="n">
-        <v>759463.637124463</v>
+        <v>759463.6371244628</v>
       </c>
       <c r="P2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244631</v>
       </c>
     </row>
     <row r="3">
@@ -26369,22 +26369,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9496.994971248218</v>
+        <v>9496.994971249294</v>
       </c>
       <c r="E3" t="n">
-        <v>1152439.021265978</v>
+        <v>1152439.021265977</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37942.11797403447</v>
+        <v>37942.11797403477</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.556579718453577e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>463750.8212586379</v>
+        <v>463750.8212586375</v>
       </c>
       <c r="E4" t="n">
-        <v>63095.10913369699</v>
+        <v>63095.10913369698</v>
       </c>
       <c r="F4" t="n">
         <v>63095.10913369698</v>
       </c>
       <c r="G4" t="n">
+        <v>91701.70120662294</v>
+      </c>
+      <c r="H4" t="n">
         <v>91701.70120662295</v>
       </c>
-      <c r="H4" t="n">
-        <v>91701.70120662297</v>
-      </c>
       <c r="I4" t="n">
-        <v>91701.70120662282</v>
+        <v>91701.70120662285</v>
       </c>
       <c r="J4" t="n">
-        <v>63366.32784492835</v>
+        <v>63366.3278449284</v>
       </c>
       <c r="K4" t="n">
-        <v>63366.32784492837</v>
+        <v>63366.32784492841</v>
       </c>
       <c r="L4" t="n">
-        <v>93774.13782657695</v>
+        <v>93774.13782657706</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.13782657695</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.13782657697</v>
+        <v>93774.13782657712</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.13782657709</v>
+        <v>93774.13782657708</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657708</v>
+        <v>93774.13782657712</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33869.34580328347</v>
+        <v>33869.3458032835</v>
       </c>
       <c r="E5" t="n">
         <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
         <v>82242.68821673066</v>
@@ -26488,16 +26488,16 @@
         <v>82242.68821673065</v>
       </c>
       <c r="I5" t="n">
-        <v>82242.68821673066</v>
+        <v>82242.68821673065</v>
       </c>
       <c r="J5" t="n">
-        <v>78293.53545634222</v>
+        <v>78293.53545634219</v>
       </c>
       <c r="K5" t="n">
-        <v>78293.5354563422</v>
+        <v>78293.53545634219</v>
       </c>
       <c r="L5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624984</v>
@@ -26509,7 +26509,7 @@
         <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>256587.0533815291</v>
+        <v>256582.6398036609</v>
       </c>
       <c r="C6" t="n">
-        <v>256587.053381529</v>
+        <v>256582.6398036609</v>
       </c>
       <c r="D6" t="n">
-        <v>250716.733700172</v>
+        <v>250712.3289937091</v>
       </c>
       <c r="E6" t="n">
-        <v>-586598.4395733525</v>
+        <v>-586739.7164732874</v>
       </c>
       <c r="F6" t="n">
-        <v>565840.5816926259</v>
+        <v>565699.3047926892</v>
       </c>
       <c r="G6" t="n">
-        <v>544194.0443132101</v>
+        <v>544184.9008391183</v>
       </c>
       <c r="H6" t="n">
-        <v>582136.1622872449</v>
+        <v>582127.0188131534</v>
       </c>
       <c r="I6" t="n">
-        <v>582136.1622872443</v>
+        <v>582127.0188131537</v>
       </c>
       <c r="J6" t="n">
-        <v>565997.7780801498</v>
+        <v>565857.761875439</v>
       </c>
       <c r="K6" t="n">
-        <v>565997.7780801499</v>
+        <v>565857.7618754391</v>
       </c>
       <c r="L6" t="n">
-        <v>505023.1258091521</v>
+        <v>505023.1258091517</v>
       </c>
       <c r="M6" t="n">
-        <v>375982.3336995632</v>
+        <v>375982.3336995629</v>
       </c>
       <c r="N6" t="n">
         <v>583170.9019916358</v>
       </c>
       <c r="O6" t="n">
+        <v>583170.9019916358</v>
+      </c>
+      <c r="P6" t="n">
         <v>583170.901991636</v>
-      </c>
-      <c r="P6" t="n">
-        <v>583170.9019916354</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
         <v>46.97513661859254</v>
@@ -26704,28 +26704,28 @@
         <v>94.40278408613601</v>
       </c>
       <c r="I2" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="J2" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="K2" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="L2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.08925703135191</v>
+        <v>11.08925703135317</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26759,7 +26759,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
@@ -26808,28 +26808,28 @@
         <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.08925703135191</v>
+        <v>11.08925703135317</v>
       </c>
       <c r="E3" t="n">
-        <v>1078.687443561946</v>
+        <v>1078.687443561945</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,40 +27868,40 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.0182479305518</v>
+        <v>339.0182479305517</v>
       </c>
       <c r="I8" t="n">
-        <v>208.7572219052755</v>
+        <v>208.7572219052753</v>
       </c>
       <c r="J8" t="n">
-        <v>177.2622388826071</v>
+        <v>177.2622388826067</v>
       </c>
       <c r="K8" t="n">
-        <v>214.4191170586415</v>
+        <v>214.4191170586409</v>
       </c>
       <c r="L8" t="n">
-        <v>228.7313680193337</v>
+        <v>228.7313680193329</v>
       </c>
       <c r="M8" t="n">
-        <v>222.5183879862421</v>
+        <v>222.5183879862412</v>
       </c>
       <c r="N8" t="n">
-        <v>221.4585556358002</v>
+        <v>221.4585556357993</v>
       </c>
       <c r="O8" t="n">
-        <v>222.5869951176015</v>
+        <v>222.5869951176007</v>
       </c>
       <c r="P8" t="n">
-        <v>224.8223464178637</v>
+        <v>224.822346417863</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.4915592001001</v>
+        <v>217.4915592000996</v>
       </c>
       <c r="R8" t="n">
-        <v>212.7851939267124</v>
+        <v>212.7851939267121</v>
       </c>
       <c r="S8" t="n">
-        <v>208.004204482318</v>
+        <v>208.0042044823179</v>
       </c>
       <c r="T8" t="n">
         <v>222.9007009303434</v>
@@ -27950,37 +27950,37 @@
         <v>112.005080614015</v>
       </c>
       <c r="I9" t="n">
-        <v>98.70114728588572</v>
+        <v>98.70114728588564</v>
       </c>
       <c r="J9" t="n">
-        <v>124.5841013297577</v>
+        <v>124.5841013297575</v>
       </c>
       <c r="K9" t="n">
-        <v>133.9898052373469</v>
+        <v>133.9898052373464</v>
       </c>
       <c r="L9" t="n">
-        <v>133.3753828993357</v>
+        <v>133.3753828993351</v>
       </c>
       <c r="M9" t="n">
-        <v>136.0903888399315</v>
+        <v>136.0903888399309</v>
       </c>
       <c r="N9" t="n">
-        <v>125.1381096993509</v>
+        <v>125.1381096993502</v>
       </c>
       <c r="O9" t="n">
-        <v>136.9211602352015</v>
+        <v>136.9211602352009</v>
       </c>
       <c r="P9" t="n">
-        <v>129.419652012151</v>
+        <v>129.4196520121505</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.9370407214888</v>
+        <v>136.9370407214885</v>
       </c>
       <c r="R9" t="n">
-        <v>144.1985650721166</v>
+        <v>144.1985650721165</v>
       </c>
       <c r="S9" t="n">
-        <v>171.2401239007456</v>
+        <v>171.2401239007455</v>
       </c>
       <c r="T9" t="n">
         <v>200.0685869286724</v>
@@ -28032,31 +28032,31 @@
         <v>154.849109972181</v>
       </c>
       <c r="J10" t="n">
-        <v>125.5816320634482</v>
+        <v>125.581632063448</v>
       </c>
       <c r="K10" t="n">
-        <v>126.6899679269177</v>
+        <v>126.6899679269175</v>
       </c>
       <c r="L10" t="n">
-        <v>131.9116646502427</v>
+        <v>131.9116646502424</v>
       </c>
       <c r="M10" t="n">
-        <v>135.7911600297099</v>
+        <v>135.7911600297096</v>
       </c>
       <c r="N10" t="n">
-        <v>124.6254548978767</v>
+        <v>124.6254548978763</v>
       </c>
       <c r="O10" t="n">
-        <v>135.6300504465402</v>
+        <v>135.6300504465399</v>
       </c>
       <c r="P10" t="n">
-        <v>135.3094552697196</v>
+        <v>135.3094552697194</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.8305238177117</v>
+        <v>149.8305238177115</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3942526021356</v>
+        <v>176.3942526021355</v>
       </c>
       <c r="S10" t="n">
         <v>223.6681045004296</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="12">
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="14">
@@ -28582,7 +28582,7 @@
         <v>94.40278408613601</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28743,16 +28743,16 @@
         <v>94.40278408613601</v>
       </c>
       <c r="J19" t="n">
+        <v>51.81880627917378</v>
+      </c>
+      <c r="K19" t="n">
         <v>94.40278408613601</v>
       </c>
-      <c r="K19" t="n">
-        <v>57.28943769526279</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="M19" t="n">
-        <v>94.40278408613601</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>94.40278408613601</v>
@@ -28767,7 +28767,7 @@
         <v>94.40278408613601</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="S19" t="n">
         <v>94.40278408613601</v>
@@ -28989,22 +28989,22 @@
         <v>94.40278408613601</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>94.40278408613601</v>
       </c>
       <c r="N22" t="n">
         <v>94.40278408613601</v>
       </c>
       <c r="O22" t="n">
+        <v>51.81880627917388</v>
+      </c>
+      <c r="P22" t="n">
         <v>94.40278408613601</v>
       </c>
-      <c r="P22" t="n">
-        <v>57.28943769526276</v>
-      </c>
       <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>94.40278408613601</v>
-      </c>
-      <c r="R22" t="n">
-        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>94.40278408613601</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="C23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="D23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="E23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="F23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="G23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="H23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="T23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="U23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="V23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="W23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="X23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="Y23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
     </row>
     <row r="24">
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="C25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="D25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="E25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="F25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="G25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="H25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="I25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="J25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="L25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="M25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="N25" t="n">
-        <v>57.28943769526612</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="O25" t="n">
-        <v>94.40278408613584</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>94.40278408613584</v>
+        <v>57.28943769526646</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="T25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="U25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="V25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="W25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="X25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613587</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="C26" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="D26" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="E26" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="F26" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="G26" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="H26" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29317,31 +29317,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="T26" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="U26" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="V26" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="W26" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="X26" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
     </row>
     <row r="27">
@@ -29369,7 +29369,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="C28" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="D28" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="E28" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="F28" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="G28" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="H28" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="I28" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="J28" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="K28" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="L28" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="M28" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="N28" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="O28" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="P28" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="R28" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="S28" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="T28" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="U28" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="V28" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="W28" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="X28" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="C29" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="D29" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="E29" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="F29" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="G29" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="H29" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29545,7 +29545,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -29557,28 +29557,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="T29" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="U29" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="V29" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="W29" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="X29" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
     </row>
     <row r="30">
@@ -29606,7 +29606,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="C31" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="D31" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="E31" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="F31" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="G31" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="H31" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="I31" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="J31" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="K31" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="L31" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="M31" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="N31" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="O31" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="P31" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="R31" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="S31" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="T31" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="U31" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="V31" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="W31" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="X31" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.42764746754329</v>
+        <v>47.42764746754332</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29779,7 +29779,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y32" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="33">
@@ -29843,10 +29843,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="J34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="K34" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="O34" t="n">
-        <v>76.32843350416081</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="P34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.68472022810489</v>
+        <v>76.32843350416067</v>
       </c>
       <c r="R34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="S34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30019,7 +30019,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="36">
@@ -30080,7 +30080,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30116,7 +30116,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810488</v>
+        <v>77.66073332242746</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="N37" t="n">
-        <v>77.66073332242826</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="P37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="R37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30262,7 +30262,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>-2.216893335571513e-12</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="39">
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30353,7 +30353,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810506</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
-        <v>85.08100106221562</v>
+        <v>77.66073332242439</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="42">
@@ -30596,7 +30596,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="K43" t="n">
-        <v>86.41330088048258</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810506</v>
+        <v>77.66073332242405</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="45">
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.882938249764265e-13</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>86.41330088048258</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810506</v>
+        <v>85.08100106221519</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04457992776422876</v>
+        <v>0.04457992776423382</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4565541852154079</v>
+        <v>0.4565541852154597</v>
       </c>
       <c r="I8" t="n">
-        <v>1.718667665130431</v>
+        <v>1.718667665130626</v>
       </c>
       <c r="J8" t="n">
-        <v>3.783665644079214</v>
+        <v>3.783665644079643</v>
       </c>
       <c r="K8" t="n">
-        <v>5.670733986339019</v>
+        <v>5.670733986339662</v>
       </c>
       <c r="L8" t="n">
-        <v>7.035046950653537</v>
+        <v>7.035046950654334</v>
       </c>
       <c r="M8" t="n">
-        <v>7.827845241030639</v>
+        <v>7.827845241031527</v>
       </c>
       <c r="N8" t="n">
-        <v>7.954507960790755</v>
+        <v>7.954507960791657</v>
       </c>
       <c r="O8" t="n">
-        <v>7.511216304085205</v>
+        <v>7.511216304086057</v>
       </c>
       <c r="P8" t="n">
-        <v>6.410649337405806</v>
+        <v>6.410649337406533</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.814130674349362</v>
+        <v>4.814130674349908</v>
       </c>
       <c r="R8" t="n">
-        <v>2.800343887419737</v>
+        <v>2.800343887420055</v>
       </c>
       <c r="S8" t="n">
-        <v>1.015865103927364</v>
+        <v>1.015865103927479</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1951486337879115</v>
+        <v>0.1951486337879337</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0035663942211383</v>
+        <v>0.003566394221138705</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02385236418064374</v>
+        <v>0.02385236418064644</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2303636224814803</v>
+        <v>0.2303636224815065</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8212327141142691</v>
+        <v>0.8212327141143623</v>
       </c>
       <c r="J9" t="n">
-        <v>2.253525336908977</v>
+        <v>2.253525336909233</v>
       </c>
       <c r="K9" t="n">
-        <v>3.851633737012108</v>
+        <v>3.851633737012544</v>
       </c>
       <c r="L9" t="n">
-        <v>5.178996880538458</v>
+        <v>5.178996880539045</v>
       </c>
       <c r="M9" t="n">
-        <v>6.043645082086792</v>
+        <v>6.043645082087477</v>
       </c>
       <c r="N9" t="n">
-        <v>6.203602383982425</v>
+        <v>6.203602383983129</v>
       </c>
       <c r="O9" t="n">
-        <v>5.675084209242899</v>
+        <v>5.675084209243542</v>
       </c>
       <c r="P9" t="n">
-        <v>4.554755402179242</v>
+        <v>4.554755402179758</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.044733364532699</v>
+        <v>3.044733364533045</v>
       </c>
       <c r="R9" t="n">
-        <v>1.480938891847337</v>
+        <v>1.480938891847505</v>
       </c>
       <c r="S9" t="n">
-        <v>0.44304720309222</v>
+        <v>0.4430472030922702</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09614176614917362</v>
+        <v>0.09614176614918453</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001569234485568668</v>
+        <v>0.001569234485568846</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01999702087620836</v>
+        <v>0.01999702087621063</v>
       </c>
       <c r="H10" t="n">
-        <v>0.17779169469938</v>
+        <v>0.1777916946994001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6013649550772481</v>
+        <v>0.6013649550773164</v>
       </c>
       <c r="J10" t="n">
-        <v>1.413789375947931</v>
+        <v>1.413789375948092</v>
       </c>
       <c r="K10" t="n">
-        <v>2.323290243617662</v>
+        <v>2.323290243617926</v>
       </c>
       <c r="L10" t="n">
-        <v>2.973011630995561</v>
+        <v>2.973011630995898</v>
       </c>
       <c r="M10" t="n">
-        <v>3.134623917895098</v>
+        <v>3.134623917895454</v>
       </c>
       <c r="N10" t="n">
-        <v>3.060089567356506</v>
+        <v>3.060089567356853</v>
       </c>
       <c r="O10" t="n">
-        <v>2.826488005302616</v>
+        <v>2.826488005302937</v>
       </c>
       <c r="P10" t="n">
-        <v>2.418548779427963</v>
+        <v>2.418548779428238</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.674477811734139</v>
+        <v>1.674477811734329</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8991387750338777</v>
+        <v>0.8991387750339798</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3484935365426493</v>
+        <v>0.3484935365426888</v>
       </c>
       <c r="T10" t="n">
-        <v>0.08544181647107209</v>
+        <v>0.08544181647108177</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00109074659324773</v>
+        <v>0.001090746593247854</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34141,7 +34141,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O41" t="n">
         <v>738.1512123099059</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356356</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35577,7 +35577,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35808,10 +35808,10 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N16" t="n">
         <v>391.8320827861326</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>106.3449593764789</v>
+        <v>63.76098156951667</v>
       </c>
       <c r="K19" t="n">
-        <v>156.5933308949298</v>
+        <v>193.706677285803</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286436</v>
+        <v>251.6854547147797</v>
       </c>
       <c r="M19" t="n">
-        <v>263.5265025701742</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
         <v>267.4420134092143</v>
@@ -36057,13 +36057,13 @@
         <v>233.7142479428933</v>
       </c>
       <c r="P19" t="n">
-        <v>194.3532919172053</v>
+        <v>194.3532919172054</v>
       </c>
       <c r="Q19" t="n">
         <v>107.4540642462782</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.470631416088679</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36285,22 +36285,22 @@
         <v>251.6854547147797</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840381</v>
+        <v>263.5265025701742</v>
       </c>
       <c r="N22" t="n">
         <v>267.4420134092143</v>
       </c>
       <c r="O22" t="n">
-        <v>233.7142479428933</v>
+        <v>191.1302701359311</v>
       </c>
       <c r="P22" t="n">
-        <v>157.239945526332</v>
+        <v>194.3532919172053</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.4540642462782</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.470631416088665</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>106.3449593764787</v>
       </c>
       <c r="K25" t="n">
-        <v>99.30389319966704</v>
+        <v>193.7066772858029</v>
       </c>
       <c r="L25" t="n">
-        <v>251.6854547147796</v>
+        <v>251.6854547147795</v>
       </c>
       <c r="M25" t="n">
         <v>263.526502570174</v>
       </c>
       <c r="N25" t="n">
-        <v>230.3286670183444</v>
+        <v>267.4420134092141</v>
       </c>
       <c r="O25" t="n">
-        <v>233.7142479428932</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
-        <v>194.3532919172052</v>
+        <v>157.2399455263357</v>
       </c>
       <c r="Q25" t="n">
         <v>107.454064246278</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.00606408060955</v>
+        <v>93.00606408060952</v>
       </c>
       <c r="K28" t="n">
-        <v>253.4753070118629</v>
+        <v>242.468041786207</v>
       </c>
       <c r="L28" t="n">
         <v>367.1850196377414</v>
       </c>
       <c r="M28" t="n">
-        <v>384.0537616353714</v>
+        <v>395.0610268610271</v>
       </c>
       <c r="N28" t="n">
         <v>392.2845936350834</v>
@@ -36768,10 +36768,10 @@
         <v>349.7807776901831</v>
       </c>
       <c r="P28" t="n">
-        <v>282.3847186126538</v>
+        <v>282.3847186126537</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.821886005437</v>
+        <v>125.8218860054369</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.00606408060952</v>
+        <v>81.99879885495373</v>
       </c>
       <c r="K31" t="n">
-        <v>253.4753070118629</v>
+        <v>253.4753070118628</v>
       </c>
       <c r="L31" t="n">
-        <v>356.1777544120858</v>
+        <v>367.1850196377414</v>
       </c>
       <c r="M31" t="n">
         <v>395.0610268610271</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37221,34 +37221,34 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.332299818266797</v>
+        <v>1.332299818266826</v>
       </c>
       <c r="J34" t="n">
         <v>109.6268955184478</v>
       </c>
       <c r="K34" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L34" t="n">
         <v>254.9673908567486</v>
       </c>
       <c r="M34" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N34" t="n">
-        <v>173.0392293230783</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O34" t="n">
-        <v>215.6398973609181</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P34" t="n">
         <v>197.6352280591742</v>
       </c>
       <c r="Q34" t="n">
-        <v>110.7360003882471</v>
+        <v>89.37971366430284</v>
       </c>
       <c r="R34" t="n">
-        <v>8.752567558057564</v>
+        <v>8.752567558057592</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K37" t="n">
-        <v>196.9886134277719</v>
+        <v>176.9646265220944</v>
       </c>
       <c r="L37" t="n">
-        <v>254.9673908567486</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M37" t="n">
-        <v>169.1237184840382</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N37" t="n">
-        <v>250.6999626455066</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O37" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P37" t="n">
         <v>197.6352280591742</v>
@@ -37485,7 +37485,7 @@
         <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
-        <v>8.752567558057549</v>
+        <v>8.752567558057592</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193696</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37695,34 +37695,34 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.332299818266968</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>97.02317635255851</v>
+        <v>89.60290861276725</v>
       </c>
       <c r="K40" t="n">
         <v>196.9886134277721</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567488</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M40" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N40" t="n">
-        <v>270.7239495511834</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O40" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P40" t="n">
         <v>197.6352280591744</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.7360003882473</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>8.752567558057734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
@@ -37938,28 +37938,28 @@
         <v>109.626895518448</v>
       </c>
       <c r="K43" t="n">
-        <v>185.7171940801496</v>
+        <v>196.9886134277721</v>
       </c>
       <c r="L43" t="n">
-        <v>254.9673908567488</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M43" t="n">
         <v>266.8084387121432</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511834</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848624</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591744</v>
+        <v>177.6112411534934</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882473</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>8.752567558057748</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38169,31 +38169,31 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.332299818266968</v>
       </c>
       <c r="J46" t="n">
-        <v>109.626895518448</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K46" t="n">
-        <v>185.7171940801496</v>
+        <v>196.9886134277721</v>
       </c>
       <c r="L46" t="n">
-        <v>254.9673908567488</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M46" t="n">
-        <v>266.8084387121432</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511834</v>
+        <v>258.1202303852934</v>
       </c>
       <c r="O46" t="n">
-        <v>236.9961840848624</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106933</v>
+        <v>197.6352280591744</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
